--- a/Code Lists/TOOP CL Participant identifier schemes v1.xlsx
+++ b/Code Lists/TOOP CL Participant identifier schemes v1.xlsx
@@ -800,8 +800,8 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1796875" defaultRowHeight="14.5"/>
